--- a/REGULAR/OJT/ALCAZAR, ZENAIDA.xlsx
+++ b/REGULAR/OJT/ALCAZAR, ZENAIDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08696ED4-62F4-4A33-9F29-01D1ADCEC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="360">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1119,7 +1118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1807,7 +1806,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1824,26 +1823,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K610" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K610" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K610" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K610"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2150,34 +2149,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K610"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2772" topLeftCell="A557" activePane="bottomLeft"/>
+      <pane ySplit="2775" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B564" sqref="B564"/>
+      <selection pane="bottomLeft" activeCell="E565" sqref="E565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2198,7 +2197,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2216,7 +2215,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2236,7 +2235,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2244,7 +2243,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2257,7 +2256,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2274,7 +2273,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2318,7 +2317,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.547000000000082</v>
+        <v>66.797000000000082</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2328,12 +2327,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.853000000000009</v>
+        <v>67.103000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>94</v>
       </c>
@@ -2355,7 +2354,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>95</v>
       </c>
@@ -2373,7 +2372,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -2397,7 +2396,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -2422,7 +2421,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A18" si="0">EDATE(A13,1)</f>
         <v>36434</v>
@@ -2449,7 +2448,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>46</v>
@@ -2468,7 +2467,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>99</v>
@@ -2485,7 +2484,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>EDATE(A14,1)</f>
         <v>36465</v>
@@ -2510,7 +2509,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -2535,7 +2534,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>96</v>
       </c>
@@ -2553,7 +2552,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A18,1)</f>
         <v>36526</v>
@@ -2578,7 +2577,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f>EDATE(A20,1)</f>
         <v>36557</v>
@@ -2605,7 +2604,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>103</v>
@@ -2622,7 +2621,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f>EDATE(A21,1)</f>
         <v>36586</v>
@@ -2647,7 +2646,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" ref="A24:A32" si="1">EDATE(A23,1)</f>
         <v>36617</v>
@@ -2672,7 +2671,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -2697,7 +2696,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>105</v>
@@ -2714,7 +2713,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A25,1)</f>
         <v>36678</v>
@@ -2739,7 +2738,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -2764,7 +2763,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -2789,7 +2788,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A29,1)</f>
         <v>36770</v>
@@ -2814,7 +2813,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -2839,7 +2838,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -2866,7 +2865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>111</v>
@@ -2883,7 +2882,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A32,1)</f>
         <v>36861</v>
@@ -2910,7 +2909,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>112</v>
@@ -2930,7 +2929,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>115</v>
       </c>
@@ -2948,7 +2947,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36892</v>
@@ -2975,7 +2974,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>116</v>
@@ -2992,7 +2991,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>36923</v>
@@ -3017,7 +3016,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>36951</v>
@@ -3042,7 +3041,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -3067,7 +3066,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -3094,7 +3093,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>119</v>
@@ -3111,7 +3110,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>37043</v>
@@ -3136,7 +3135,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -3163,7 +3162,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>120</v>
@@ -3180,7 +3179,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f>EDATE(A45,1)</f>
         <v>37104</v>
@@ -3205,7 +3204,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -3232,7 +3231,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>123</v>
@@ -3249,7 +3248,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f>EDATE(A48,1)</f>
         <v>37165</v>
@@ -3274,7 +3273,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -3301,7 +3300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>119</v>
@@ -3318,7 +3317,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>37226</v>
@@ -3345,7 +3344,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>104</v>
@@ -3365,7 +3364,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>126</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A53,1)</f>
         <v>37257</v>
@@ -3405,7 +3404,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f>EDATE(A56,1)</f>
         <v>37288</v>
@@ -3430,7 +3429,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" ref="A58:A68" si="3">EDATE(A57,1)</f>
         <v>37316</v>
@@ -3455,7 +3454,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -3482,7 +3481,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -3504,7 +3503,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>106</v>
@@ -3524,7 +3523,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f>EDATE(A59,1)</f>
         <v>37377</v>
@@ -3549,7 +3548,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -3570,7 +3569,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -3597,7 +3596,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>64</v>
@@ -3617,7 +3616,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A64,1)</f>
         <v>37469</v>
@@ -3644,7 +3643,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -3671,7 +3670,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -3698,7 +3697,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>72</v>
@@ -3720,7 +3719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>37561</v>
@@ -3747,7 +3746,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>119</v>
@@ -3767,7 +3766,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37591</v>
@@ -3794,7 +3793,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>132</v>
@@ -3814,7 +3813,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>127</v>
       </c>
@@ -3829,7 +3828,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A72,1)</f>
         <v>37622</v>
@@ -3854,7 +3853,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A75,1)</f>
         <v>37653</v>
@@ -3879,7 +3878,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" ref="A77:A85" si="4">EDATE(A76,1)</f>
         <v>37681</v>
@@ -3904,7 +3903,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="4"/>
         <v>37712</v>
@@ -3931,7 +3930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -3953,7 +3952,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>138</v>
@@ -3973,7 +3972,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="53"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f>EDATE(A78,1)</f>
         <v>37742</v>
@@ -3998,7 +3997,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -4023,7 +4022,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -4048,7 +4047,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -4073,7 +4072,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -4098,7 +4097,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f>EDATE(A85,1)</f>
         <v>37895</v>
@@ -4125,7 +4124,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>141</v>
@@ -4145,7 +4144,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A86,1)</f>
         <v>37926</v>
@@ -4172,7 +4171,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>142</v>
@@ -4192,7 +4191,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -4212,7 +4211,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A88,1)</f>
         <v>37956</v>
@@ -4239,7 +4238,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>145</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>37987</v>
@@ -4282,7 +4281,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f>EDATE(A93,1)</f>
         <v>38018</v>
@@ -4309,7 +4308,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>100</v>
@@ -4329,7 +4328,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f>EDATE(A94,1)</f>
         <v>38047</v>
@@ -4356,7 +4355,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>148</v>
@@ -4376,7 +4375,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f>EDATE(A96,1)</f>
         <v>38078</v>
@@ -4403,7 +4402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>73</v>
@@ -4423,7 +4422,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>38108</v>
@@ -4450,7 +4449,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>149</v>
@@ -4470,7 +4469,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>38139</v>
@@ -4497,7 +4496,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>46</v>
@@ -4519,7 +4518,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>152</v>
@@ -4539,7 +4538,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>38169</v>
@@ -4566,7 +4565,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>60</v>
@@ -4586,7 +4585,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f>EDATE(A105,1)</f>
         <v>38200</v>
@@ -4611,7 +4610,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" ref="A108:A109" si="5">EDATE(A107,1)</f>
         <v>38231</v>
@@ -4636,7 +4635,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="5"/>
         <v>38261</v>
@@ -4663,7 +4662,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>118</v>
@@ -4683,7 +4682,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f>EDATE(A109,1)</f>
         <v>38292</v>
@@ -4708,7 +4707,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A111,1)</f>
         <v>38322</v>
@@ -4735,7 +4734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="48"/>
       <c r="B113" s="20" t="s">
         <v>99</v>
@@ -4755,7 +4754,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>158</v>
       </c>
@@ -4773,7 +4772,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A112,1)</f>
         <v>38353</v>
@@ -4800,7 +4799,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>99</v>
@@ -4820,7 +4819,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>38384</v>
@@ -4845,7 +4844,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" ref="A118:A135" si="6">EDATE(A117,1)</f>
         <v>38412</v>
@@ -4870,7 +4869,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>101</v>
@@ -4890,7 +4889,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A118,1)</f>
         <v>38443</v>
@@ -4915,7 +4914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>72</v>
@@ -4937,7 +4936,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>163</v>
@@ -4957,7 +4956,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A120,1)</f>
         <v>38473</v>
@@ -4982,7 +4981,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="6"/>
         <v>38504</v>
@@ -5007,7 +5006,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>167</v>
@@ -5026,7 +5025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>153</v>
@@ -5045,7 +5044,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>168</v>
@@ -5062,7 +5061,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A124,1)</f>
         <v>38534</v>
@@ -5087,7 +5086,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="6"/>
         <v>38565</v>
@@ -5114,7 +5113,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>64</v>
@@ -5134,7 +5133,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>38596</v>
@@ -5159,7 +5158,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="6"/>
         <v>38626</v>
@@ -5186,7 +5185,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>170</v>
@@ -5203,7 +5202,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="53"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A132,1)</f>
         <v>38657</v>
@@ -5228,7 +5227,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="6"/>
         <v>38687</v>
@@ -5255,7 +5254,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>54</v>
@@ -5275,7 +5274,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="53"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>173</v>
@@ -5295,7 +5294,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="53"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>159</v>
       </c>
@@ -5313,7 +5312,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f>EDATE(A135,1)</f>
         <v>38718</v>
@@ -5340,7 +5339,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>46</v>
@@ -5362,7 +5361,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>174</v>
@@ -5382,7 +5381,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="53"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A139,1)</f>
         <v>38749</v>
@@ -5409,7 +5408,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -5431,7 +5430,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>175</v>
@@ -5451,7 +5450,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EDATE(A142,1)</f>
         <v>38777</v>
@@ -5478,7 +5477,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>49</v>
@@ -5495,7 +5494,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>176</v>
@@ -5512,7 +5511,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f>EDATE(A145,1)</f>
         <v>38808</v>
@@ -5539,7 +5538,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>106</v>
@@ -5556,7 +5555,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>49</v>
@@ -5573,7 +5572,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>46</v>
@@ -5592,7 +5591,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>49</v>
@@ -5609,7 +5608,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A148,1)</f>
         <v>38838</v>
@@ -5634,7 +5633,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f t="shared" ref="A154:A164" si="7">EDATE(A153,1)</f>
         <v>38869</v>
@@ -5661,7 +5660,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>181</v>
@@ -5678,7 +5677,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="53"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f>EDATE(A154,1)</f>
         <v>38899</v>
@@ -5705,7 +5704,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>182</v>
@@ -5724,7 +5723,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>183</v>
@@ -5741,7 +5740,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>184</v>
@@ -5758,7 +5757,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f>EDATE(A156,1)</f>
         <v>38930</v>
@@ -5779,7 +5778,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -5804,7 +5803,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -5829,7 +5828,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A162,1)</f>
         <v>39022</v>
@@ -5854,7 +5853,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -5881,7 +5880,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48"/>
       <c r="B165" s="20" t="s">
         <v>88</v>
@@ -5903,7 +5902,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="48"/>
       <c r="B166" s="20" t="s">
         <v>46</v>
@@ -5925,7 +5924,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="48"/>
       <c r="B167" s="20" t="s">
         <v>189</v>
@@ -5945,7 +5944,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
         <v>191</v>
       </c>
@@ -5963,7 +5962,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A164,1)</f>
         <v>39083</v>
@@ -5988,7 +5987,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f>EDATE(A169,1)</f>
         <v>39114</v>
@@ -6015,7 +6014,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>53</v>
@@ -6034,7 +6033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>181</v>
@@ -6051,7 +6050,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A170,1)</f>
         <v>39142</v>
@@ -6078,7 +6077,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>172</v>
@@ -6097,7 +6096,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>194</v>
@@ -6114,7 +6113,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="53"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f>EDATE(A173,1)</f>
         <v>39173</v>
@@ -6139,7 +6138,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>46</v>
@@ -6158,7 +6157,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>172</v>
@@ -6177,7 +6176,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>181</v>
@@ -6194,7 +6193,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A176,1)</f>
         <v>39203</v>
@@ -6221,7 +6220,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>49</v>
@@ -6238,7 +6237,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>46</v>
@@ -6255,7 +6254,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>195</v>
@@ -6272,7 +6271,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f>EDATE(A180,1)</f>
         <v>39234</v>
@@ -6299,7 +6298,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>199</v>
@@ -6316,7 +6315,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A184,1)</f>
         <v>39264</v>
@@ -6343,7 +6342,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>172</v>
@@ -6362,7 +6361,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>46</v>
@@ -6381,7 +6380,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>176</v>
@@ -6398,7 +6397,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EDATE(A186,1)</f>
         <v>39295</v>
@@ -6425,7 +6424,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>201</v>
@@ -6442,7 +6441,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A190,1)</f>
         <v>39326</v>
@@ -6469,7 +6468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>46</v>
@@ -6488,7 +6487,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>204</v>
@@ -6505,7 +6504,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f>EDATE(A192,1)</f>
         <v>39356</v>
@@ -6532,7 +6531,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>205</v>
@@ -6549,7 +6548,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f t="shared" ref="A197" si="8">EDATE(A195,1)</f>
         <v>39387</v>
@@ -6574,7 +6573,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f>EDATE(A197,1)</f>
         <v>39417</v>
@@ -6601,7 +6600,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>209</v>
@@ -6618,7 +6617,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>210</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EDATE(A198,1)</f>
         <v>39448</v>
@@ -6661,7 +6660,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A201,1)</f>
         <v>39479</v>
@@ -6688,7 +6687,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>53</v>
@@ -6707,7 +6706,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>99</v>
@@ -6724,7 +6723,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39508</v>
@@ -6749,7 +6748,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>49</v>
@@ -6766,7 +6765,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -6785,7 +6784,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>212</v>
@@ -6802,7 +6801,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A205,1)</f>
         <v>39539</v>
@@ -6829,7 +6828,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>46</v>
@@ -6848,7 +6847,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>88</v>
@@ -6867,7 +6866,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>215</v>
@@ -6884,7 +6883,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A209,1)</f>
         <v>39569</v>
@@ -6911,7 +6910,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>46</v>
@@ -6930,7 +6929,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>46</v>
@@ -6949,7 +6948,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>217</v>
@@ -6966,7 +6965,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="53"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A213,1)</f>
         <v>39600</v>
@@ -6993,7 +6992,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>46</v>
@@ -7012,7 +7011,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>218</v>
@@ -7029,7 +7028,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>39630</v>
@@ -7056,7 +7055,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>46</v>
@@ -7075,7 +7074,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>46</v>
@@ -7094,7 +7093,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>219</v>
@@ -7111,7 +7110,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f>EDATE(A220,1)</f>
         <v>39661</v>
@@ -7138,7 +7137,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -7157,7 +7156,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>220</v>
@@ -7174,7 +7173,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A224,1)</f>
         <v>39692</v>
@@ -7201,7 +7200,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>221</v>
@@ -7218,7 +7217,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A227,1)</f>
         <v>39722</v>
@@ -7245,7 +7244,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>46</v>
@@ -7264,7 +7263,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>223</v>
@@ -7281,7 +7280,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>39753</v>
@@ -7308,7 +7307,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>47</v>
@@ -7327,7 +7326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>224</v>
@@ -7344,7 +7343,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f t="shared" ref="A235" si="9">EDATE(A232,1)</f>
         <v>39783</v>
@@ -7369,7 +7368,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>226</v>
@@ -7389,7 +7388,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="48" t="s">
         <v>227</v>
       </c>
@@ -7407,7 +7406,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f>EDATE(A235,1)</f>
         <v>39814</v>
@@ -7432,7 +7431,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A238,1)</f>
         <v>39845</v>
@@ -7459,7 +7458,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>229</v>
@@ -7476,7 +7475,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f>EDATE(A239,1)</f>
         <v>39873</v>
@@ -7503,7 +7502,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>49</v>
@@ -7520,7 +7519,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>54</v>
@@ -7539,7 +7538,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>182</v>
@@ -7558,7 +7557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>230</v>
@@ -7575,7 +7574,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A241,1)</f>
         <v>39904</v>
@@ -7600,7 +7599,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" ref="A247:A260" si="10">EDATE(A246,1)</f>
         <v>39934</v>
@@ -7627,7 +7626,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>235</v>
@@ -7644,7 +7643,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f>EDATE(A247,1)</f>
         <v>39965</v>
@@ -7671,7 +7670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>236</v>
@@ -7688,7 +7687,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A249,1)</f>
         <v>39995</v>
@@ -7715,7 +7714,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>239</v>
@@ -7732,7 +7731,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f>EDATE(A251,1)</f>
         <v>40026</v>
@@ -7759,7 +7758,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>241</v>
@@ -7776,7 +7775,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f>EDATE(A253,1)</f>
         <v>40057</v>
@@ -7803,7 +7802,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>242</v>
@@ -7820,7 +7819,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="53"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A255,1)</f>
         <v>40087</v>
@@ -7847,7 +7846,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>244</v>
@@ -7864,7 +7863,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>40118</v>
@@ -7889,7 +7888,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -7914,7 +7913,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
         <v>247</v>
       </c>
@@ -7932,7 +7931,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f>EDATE(A260,1)</f>
         <v>40179</v>
@@ -7957,7 +7956,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A262,1)</f>
         <v>40210</v>
@@ -7984,7 +7983,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>46</v>
@@ -8003,7 +8002,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>245</v>
@@ -8020,7 +8019,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A263,1)</f>
         <v>40238</v>
@@ -8047,7 +8046,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>46</v>
@@ -8066,7 +8065,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>53</v>
@@ -8085,7 +8084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>249</v>
@@ -8102,7 +8101,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f>EDATE(A266,1)</f>
         <v>40269</v>
@@ -8123,7 +8122,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>88</v>
@@ -8140,7 +8139,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>251</v>
@@ -8157,7 +8156,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A270,1)</f>
         <v>40299</v>
@@ -8184,7 +8183,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>46</v>
@@ -8203,7 +8202,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>252</v>
@@ -8222,7 +8221,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>253</v>
@@ -8239,7 +8238,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="53"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f>EDATE(A273,1)</f>
         <v>40330</v>
@@ -8266,7 +8265,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>254</v>
@@ -8283,7 +8282,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A277,1)</f>
         <v>40360</v>
@@ -8310,7 +8309,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>255</v>
@@ -8327,7 +8326,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>49</v>
@@ -8344,7 +8343,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A279,1)</f>
         <v>40391</v>
@@ -8371,7 +8370,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>46</v>
@@ -8388,7 +8387,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>182</v>
@@ -8407,7 +8406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>256</v>
@@ -8424,7 +8423,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A282,1)</f>
         <v>40422</v>
@@ -8451,7 +8450,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>258</v>
@@ -8468,7 +8467,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A286,1)</f>
         <v>40452</v>
@@ -8495,7 +8494,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>46</v>
@@ -8514,7 +8513,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>46</v>
@@ -8533,7 +8532,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>259</v>
@@ -8550,7 +8549,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f>EDATE(A288,1)</f>
         <v>40483</v>
@@ -8577,7 +8576,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>261</v>
@@ -8594,7 +8593,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" ref="A294" si="11">EDATE(A292,1)</f>
         <v>40513</v>
@@ -8621,7 +8620,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>263</v>
@@ -8641,7 +8640,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>264</v>
       </c>
@@ -8659,7 +8658,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>40544</v>
@@ -8686,7 +8685,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23" t="s">
         <v>265</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>46</v>
@@ -8726,7 +8725,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>266</v>
@@ -8743,7 +8742,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40575</v>
@@ -8770,7 +8769,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>46</v>
@@ -8789,7 +8788,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>53</v>
@@ -8808,7 +8807,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>46</v>
@@ -8827,7 +8826,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>268</v>
@@ -8844,7 +8843,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A301,1)</f>
         <v>40603</v>
@@ -8871,7 +8870,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>49</v>
@@ -8888,7 +8887,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>271</v>
@@ -8905,7 +8904,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A306,1)</f>
         <v>40634</v>
@@ -8926,7 +8925,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" ref="A310:A317" si="12">EDATE(A309,1)</f>
         <v>40664</v>
@@ -8953,7 +8952,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f t="shared" si="12"/>
         <v>40695</v>
@@ -8980,7 +8979,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -9007,7 +9006,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -9028,7 +9027,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" si="12"/>
         <v>40787</v>
@@ -9049,7 +9048,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <f t="shared" si="12"/>
         <v>40817</v>
@@ -9074,7 +9073,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f t="shared" si="12"/>
         <v>40848</v>
@@ -9099,7 +9098,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f t="shared" si="12"/>
         <v>40878</v>
@@ -9126,7 +9125,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -9148,7 +9147,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>54</v>
@@ -9168,7 +9167,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>277</v>
@@ -9188,7 +9187,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
         <v>279</v>
       </c>
@@ -9206,7 +9205,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A317,1)</f>
         <v>40909</v>
@@ -9231,7 +9230,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A322,1)</f>
         <v>40940</v>
@@ -9258,7 +9257,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>281</v>
@@ -9275,7 +9274,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f>EDATE(A323,1)</f>
         <v>40969</v>
@@ -9302,7 +9301,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>46</v>
@@ -9321,7 +9320,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>275</v>
@@ -9338,7 +9337,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A325,1)</f>
         <v>41000</v>
@@ -9363,7 +9362,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>46</v>
@@ -9382,7 +9381,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>283</v>
@@ -9399,7 +9398,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A328,1)</f>
         <v>41030</v>
@@ -9426,7 +9425,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>172</v>
@@ -9445,7 +9444,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>49</v>
@@ -9462,7 +9461,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>284</v>
@@ -9479,7 +9478,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A331,1)</f>
         <v>41061</v>
@@ -9504,7 +9503,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A335,1)</f>
         <v>41091</v>
@@ -9529,7 +9528,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f t="shared" ref="A337:A339" si="13">EDATE(A336,1)</f>
         <v>41122</v>
@@ -9554,7 +9553,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -9579,7 +9578,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f t="shared" si="13"/>
         <v>41183</v>
@@ -9606,7 +9605,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>290</v>
@@ -9623,7 +9622,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>41214</v>
@@ -9650,7 +9649,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>291</v>
@@ -9667,7 +9666,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>41244</v>
@@ -9694,7 +9693,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>292</v>
@@ -9714,7 +9713,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>295</v>
       </c>
@@ -9732,7 +9731,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>41275</v>
@@ -9759,7 +9758,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>296</v>
@@ -9776,7 +9775,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>41306</v>
@@ -9797,7 +9796,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f t="shared" ref="A349:A350" si="14">EDATE(A348,1)</f>
         <v>41334</v>
@@ -9818,7 +9817,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -9845,7 +9844,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>46</v>
@@ -9864,7 +9863,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>88</v>
@@ -9883,7 +9882,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>297</v>
@@ -9900,7 +9899,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A350,1)</f>
         <v>41395</v>
@@ -9927,7 +9926,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>170</v>
@@ -9944,7 +9943,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="53"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41426</v>
@@ -9971,7 +9970,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>299</v>
@@ -9988,7 +9987,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>41456</v>
@@ -10015,7 +10014,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>88</v>
@@ -10034,7 +10033,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>194</v>
@@ -10051,7 +10050,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A358,1)</f>
         <v>41487</v>
@@ -10078,7 +10077,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>46</v>
@@ -10097,7 +10096,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>301</v>
@@ -10114,7 +10113,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f>EDATE(A361,1)</f>
         <v>41518</v>
@@ -10141,7 +10140,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>46</v>
@@ -10160,7 +10159,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>302</v>
@@ -10177,7 +10176,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f>EDATE(A364,1)</f>
         <v>41548</v>
@@ -10204,7 +10203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>303</v>
@@ -10221,7 +10220,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <f>EDATE(A367,1)</f>
         <v>41579</v>
@@ -10248,7 +10247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>304</v>
@@ -10265,7 +10264,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <f>EDATE(A369,1)</f>
         <v>41609</v>
@@ -10292,7 +10291,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="48"/>
       <c r="B372" s="20" t="s">
         <v>305</v>
@@ -10312,7 +10311,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="48" t="s">
         <v>306</v>
       </c>
@@ -10330,7 +10329,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A371,1)</f>
         <v>41640</v>
@@ -10357,7 +10356,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>307</v>
@@ -10374,7 +10373,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="53"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <f>EDATE(A374,1)</f>
         <v>41671</v>
@@ -10399,7 +10398,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f t="shared" ref="A377:A398" si="15">EDATE(A376,1)</f>
         <v>41699</v>
@@ -10426,7 +10425,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>172</v>
@@ -10445,7 +10444,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>198</v>
@@ -10464,7 +10463,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>309</v>
@@ -10481,7 +10480,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <f>EDATE(A377,1)</f>
         <v>41730</v>
@@ -10508,7 +10507,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>310</v>
@@ -10525,7 +10524,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <f>EDATE(A381,1)</f>
         <v>41760</v>
@@ -10552,7 +10551,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>46</v>
@@ -10571,7 +10570,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>46</v>
@@ -10590,7 +10589,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>46</v>
@@ -10609,7 +10608,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>311</v>
@@ -10626,7 +10625,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f>EDATE(A383,1)</f>
         <v>41791</v>
@@ -10653,7 +10652,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>314</v>
@@ -10670,7 +10669,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <f>EDATE(A388,1)</f>
         <v>41821</v>
@@ -10697,7 +10696,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>315</v>
@@ -10714,7 +10713,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f>EDATE(A390,1)</f>
         <v>41852</v>
@@ -10741,7 +10740,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>316</v>
@@ -10758,7 +10757,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A392,1)</f>
         <v>41883</v>
@@ -10779,7 +10778,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f t="shared" si="15"/>
         <v>41913</v>
@@ -10806,7 +10805,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>288</v>
@@ -10823,7 +10822,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>41944</v>
@@ -10848,7 +10847,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f t="shared" si="15"/>
         <v>41974</v>
@@ -10873,7 +10872,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>319</v>
       </c>
@@ -10891,7 +10890,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <f>EDATE(A398,1)</f>
         <v>42005</v>
@@ -10918,7 +10917,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>320</v>
@@ -10935,7 +10934,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A400,1)</f>
         <v>42036</v>
@@ -10962,7 +10961,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>322</v>
@@ -10979,7 +10978,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f>EDATE(A402,1)</f>
         <v>42064</v>
@@ -11006,7 +11005,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>49</v>
@@ -11023,7 +11022,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>324</v>
@@ -11040,7 +11039,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f>EDATE(A404,1)</f>
         <v>42095</v>
@@ -11065,7 +11064,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f t="shared" ref="A408:A419" si="16">EDATE(A407,1)</f>
         <v>42125</v>
@@ -11092,7 +11091,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>46</v>
@@ -11111,7 +11110,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>46</v>
@@ -11130,7 +11129,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>326</v>
@@ -11147,7 +11146,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A408,1)</f>
         <v>42156</v>
@@ -11172,7 +11171,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -11197,7 +11196,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f t="shared" si="16"/>
         <v>42217</v>
@@ -11224,7 +11223,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>329</v>
@@ -11241,7 +11240,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>42248</v>
@@ -11268,7 +11267,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>174</v>
@@ -11285,7 +11284,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f>EDATE(A416,1)</f>
         <v>42278</v>
@@ -11310,7 +11309,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f t="shared" si="16"/>
         <v>42309</v>
@@ -11337,7 +11336,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>182</v>
@@ -11356,7 +11355,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>332</v>
@@ -11373,7 +11372,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f>EDATE(A419,1)</f>
         <v>42339</v>
@@ -11398,7 +11397,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="48" t="s">
         <v>335</v>
       </c>
@@ -11416,7 +11415,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>42370</v>
@@ -11441,7 +11440,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <f>EDATE(A424,1)</f>
         <v>42401</v>
@@ -11468,7 +11467,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>46</v>
@@ -11487,7 +11486,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>337</v>
@@ -11504,7 +11503,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A425,1)</f>
         <v>42430</v>
@@ -11531,7 +11530,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>338</v>
@@ -11548,7 +11547,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f>EDATE(A428,1)</f>
         <v>42461</v>
@@ -11573,7 +11572,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f t="shared" ref="A431:A439" si="17">EDATE(A430,1)</f>
         <v>42491</v>
@@ -11600,7 +11599,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>72</v>
@@ -11619,7 +11618,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>46</v>
@@ -11638,7 +11637,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>46</v>
@@ -11657,7 +11656,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>49</v>
@@ -11674,7 +11673,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>340</v>
@@ -11691,7 +11690,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="53"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A431,1)</f>
         <v>42522</v>
@@ -11716,7 +11715,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -11741,7 +11740,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -11768,7 +11767,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>344</v>
@@ -11785,7 +11784,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f>EDATE(A439,1)</f>
         <v>42614</v>
@@ -11810,7 +11809,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <f>EDATE(A441,1)</f>
         <v>42644</v>
@@ -11837,7 +11836,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>345</v>
@@ -11854,7 +11853,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>42675</v>
@@ -11881,7 +11880,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>346</v>
@@ -11898,7 +11897,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f>EDATE(A444,1)</f>
         <v>42705</v>
@@ -11923,7 +11922,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>350</v>
@@ -11940,7 +11939,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="48" t="s">
         <v>349</v>
       </c>
@@ -11958,7 +11957,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A446,1)</f>
         <v>42736</v>
@@ -11981,7 +11980,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f>EDATE(A449,1)</f>
         <v>42767</v>
@@ -12002,7 +12001,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f t="shared" ref="A451:A465" si="18">EDATE(A450,1)</f>
         <v>42795</v>
@@ -12027,7 +12026,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <f t="shared" si="18"/>
         <v>42826</v>
@@ -12054,7 +12053,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <f t="shared" si="18"/>
         <v>42856</v>
@@ -12081,7 +12080,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>72</v>
@@ -12100,7 +12099,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>45</v>
@@ -12119,7 +12118,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>46</v>
@@ -12138,7 +12137,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A453,1)</f>
         <v>42887</v>
@@ -12165,7 +12164,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>46</v>
@@ -12184,7 +12183,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f>EDATE(A457,1)</f>
         <v>42917</v>
@@ -12211,7 +12210,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>46</v>
@@ -12230,7 +12229,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>72</v>
@@ -12249,7 +12248,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>42948</v>
@@ -12270,7 +12269,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f t="shared" si="18"/>
         <v>42979</v>
@@ -12291,7 +12290,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -12318,7 +12317,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -12345,7 +12344,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A465,1)</f>
         <v>43070</v>
@@ -12372,7 +12371,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>359</v>
@@ -12389,7 +12388,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="48" t="s">
         <v>44</v>
       </c>
@@ -12411,7 +12410,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43101</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43132</v>
       </c>
@@ -12463,7 +12462,7 @@
         <v>43157</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43160</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -12506,7 +12505,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43191</v>
       </c>
@@ -12532,7 +12531,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -12549,7 +12548,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>45</v>
@@ -12568,7 +12567,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>45</v>
@@ -12587,7 +12586,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43221</v>
       </c>
@@ -12607,7 +12606,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43252</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43282</v>
       </c>
@@ -12653,7 +12652,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43313</v>
       </c>
@@ -12673,7 +12672,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43344</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43374</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43405</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>46</v>
@@ -12770,7 +12769,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43435</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>54</v>
@@ -12816,7 +12815,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
         <v>59</v>
       </c>
@@ -12834,7 +12833,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43466</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>60</v>
@@ -12877,7 +12876,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43497</v>
       </c>
@@ -12901,7 +12900,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43525</v>
       </c>
@@ -12925,7 +12924,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43556</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>49</v>
@@ -12968,7 +12967,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>46</v>
@@ -12987,7 +12986,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>64</v>
@@ -13004,7 +13003,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43586</v>
       </c>
@@ -13030,7 +13029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>66</v>
@@ -13047,7 +13046,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43617</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>67</v>
@@ -13090,7 +13089,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43647</v>
       </c>
@@ -13114,7 +13113,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43678</v>
       </c>
@@ -13138,7 +13137,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43709</v>
       </c>
@@ -13162,7 +13161,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43739</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>71</v>
@@ -13205,7 +13204,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43770</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>72</v>
@@ -13250,7 +13249,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>73</v>
@@ -13267,7 +13266,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43800</v>
       </c>
@@ -13291,7 +13290,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
         <v>63</v>
       </c>
@@ -13309,7 +13308,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43831</v>
       </c>
@@ -13329,7 +13328,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43862</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43891</v>
       </c>
@@ -13381,7 +13380,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43922</v>
       </c>
@@ -13401,7 +13400,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43952</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43983</v>
       </c>
@@ -13451,7 +13450,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>65</v>
@@ -13470,7 +13469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44013</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>78</v>
@@ -13515,7 +13514,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>53</v>
@@ -13534,7 +13533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44044</v>
       </c>
@@ -13554,7 +13553,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44075</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>47</v>
@@ -13599,7 +13598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>47</v>
@@ -13618,7 +13617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44105</v>
       </c>
@@ -13638,7 +13637,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44136</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44166</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="48" t="s">
         <v>87</v>
       </c>
@@ -13708,7 +13707,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44197</v>
       </c>
@@ -13728,7 +13727,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44228</v>
       </c>
@@ -13748,7 +13747,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44256</v>
       </c>
@@ -13768,7 +13767,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44287</v>
       </c>
@@ -13788,7 +13787,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44317</v>
       </c>
@@ -13808,7 +13807,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44348</v>
       </c>
@@ -13828,7 +13827,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44378</v>
       </c>
@@ -13848,7 +13847,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44409</v>
       </c>
@@ -13868,7 +13867,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44440</v>
       </c>
@@ -13888,7 +13887,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44470</v>
       </c>
@@ -13908,7 +13907,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44501</v>
       </c>
@@ -13928,7 +13927,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44531</v>
       </c>
@@ -13954,7 +13953,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>88</v>
@@ -13974,7 +13973,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="48" t="s">
         <v>90</v>
       </c>
@@ -13992,7 +13991,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44562</v>
       </c>
@@ -14012,7 +14011,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44593</v>
       </c>
@@ -14032,7 +14031,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44621</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>49</v>
@@ -14073,7 +14072,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44652</v>
       </c>
@@ -14093,7 +14092,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44682</v>
       </c>
@@ -14113,7 +14112,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44713</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44743</v>
       </c>
@@ -14159,7 +14158,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44774</v>
       </c>
@@ -14179,7 +14178,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44805</v>
       </c>
@@ -14205,7 +14204,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>53</v>
@@ -14227,7 +14226,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44835</v>
       </c>
@@ -14247,7 +14246,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44866</v>
       </c>
@@ -14267,7 +14266,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44896</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>45</v>
@@ -14315,7 +14314,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="48" t="s">
         <v>91</v>
       </c>
@@ -14333,7 +14332,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44927</v>
       </c>
@@ -14353,7 +14352,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44958</v>
       </c>
@@ -14373,7 +14372,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44986</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45017</v>
       </c>
@@ -14417,7 +14416,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45047</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45078</v>
       </c>
@@ -14469,31 +14468,37 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45108</v>
       </c>
       <c r="B564" s="20"/>
-      <c r="C564" s="13"/>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D564" s="39"/>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45139</v>
       </c>
-      <c r="B565" s="20"/>
+      <c r="B565" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C565" s="13"/>
-      <c r="D565" s="39"/>
+      <c r="D565" s="39">
+        <v>1</v>
+      </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
       <c r="G565" s="13" t="str">
@@ -14503,9 +14508,11 @@
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K565" s="49">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45170</v>
       </c>
@@ -14523,7 +14530,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45200</v>
       </c>
@@ -14541,7 +14548,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45231</v>
       </c>
@@ -14559,7 +14566,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45261</v>
       </c>
@@ -14577,7 +14584,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45292</v>
       </c>
@@ -14595,7 +14602,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45323</v>
       </c>
@@ -14613,7 +14620,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45352</v>
       </c>
@@ -14631,7 +14638,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45383</v>
       </c>
@@ -14649,7 +14656,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45413</v>
       </c>
@@ -14667,7 +14674,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45444</v>
       </c>
@@ -14685,7 +14692,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45474</v>
       </c>
@@ -14703,7 +14710,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45505</v>
       </c>
@@ -14721,7 +14728,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45536</v>
       </c>
@@ -14739,7 +14746,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45566</v>
       </c>
@@ -14757,7 +14764,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45597</v>
       </c>
@@ -14775,7 +14782,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45627</v>
       </c>
@@ -14793,7 +14800,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45658</v>
       </c>
@@ -14811,7 +14818,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45689</v>
       </c>
@@ -14829,7 +14836,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45717</v>
       </c>
@@ -14847,7 +14854,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45748</v>
       </c>
@@ -14865,7 +14872,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45778</v>
       </c>
@@ -14883,7 +14890,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45809</v>
       </c>
@@ -14901,7 +14908,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45839</v>
       </c>
@@ -14919,7 +14926,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45870</v>
       </c>
@@ -14937,7 +14944,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45901</v>
       </c>
@@ -14955,7 +14962,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45931</v>
       </c>
@@ -14973,7 +14980,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45962</v>
       </c>
@@ -14991,7 +14998,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45992</v>
       </c>
@@ -15009,7 +15016,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>46023</v>
       </c>
@@ -15027,7 +15034,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>46054</v>
       </c>
@@ -15045,7 +15052,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>46082</v>
       </c>
@@ -15063,7 +15070,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>46113</v>
       </c>
@@ -15081,7 +15088,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>46143</v>
       </c>
@@ -15099,7 +15106,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>46174</v>
       </c>
@@ -15117,7 +15124,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>46204</v>
       </c>
@@ -15135,7 +15142,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>46235</v>
       </c>
@@ -15153,7 +15160,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>46266</v>
       </c>
@@ -15171,7 +15178,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>46296</v>
       </c>
@@ -15189,7 +15196,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>46327</v>
       </c>
@@ -15207,7 +15214,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15223,7 +15230,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15239,7 +15246,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15255,7 +15262,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15271,7 +15278,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15287,7 +15294,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41"/>
       <c r="B610" s="15"/>
       <c r="C610" s="42"/>
@@ -15318,10 +15325,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15347,28 +15354,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -15381,7 +15388,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15410,7 +15417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15436,17 +15443,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15467,7 +15474,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15494,7 +15501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15520,7 +15527,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15546,7 +15553,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15572,7 +15579,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15598,7 +15605,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15624,7 +15631,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15650,7 +15657,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15676,7 +15683,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15696,7 +15703,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15716,7 +15723,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15736,7 +15743,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15757,7 +15764,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15778,7 +15785,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15799,7 +15806,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15820,7 +15827,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15841,7 +15848,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15862,7 +15869,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15883,7 +15890,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15904,7 +15911,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15925,7 +15932,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15946,7 +15953,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15967,7 +15974,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15988,7 +15995,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16009,7 +16016,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16030,7 +16037,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16051,7 +16058,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16072,7 +16079,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16093,7 +16100,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16114,7 +16121,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16135,7 +16142,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16156,7 +16163,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16165,7 +16172,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16174,7 +16181,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16183,7 +16190,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16192,7 +16199,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16201,7 +16208,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16210,7 +16217,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16219,7 +16226,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16228,7 +16235,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16237,7 +16244,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16246,7 +16253,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16255,7 +16262,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16264,7 +16271,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16273,7 +16280,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16282,7 +16289,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16291,7 +16298,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16300,7 +16307,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16309,7 +16316,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16318,7 +16325,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16327,7 +16334,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16336,7 +16343,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16345,7 +16352,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16354,7 +16361,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16363,7 +16370,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16372,7 +16379,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16381,7 +16388,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16390,7 +16397,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16399,7 +16406,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16408,7 +16415,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16417,7 +16424,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
